--- a/biology/Mycologie/Xylaire_polymorphe/Xylaire_polymorphe.xlsx
+++ b/biology/Mycologie/Xylaire_polymorphe/Xylaire_polymorphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xylaria polymorpha
 La Xylaire polymorphe (Xylaria polymorpha) est un champignon ascomycète du genre Xylaria et de la famille des Xylariaceae.
-L'espèce de champignon nommée "xylaria polymorpha" de son nom français "xylaire polymorphe". Elle est surnommée "les mains des morts", "doigt de l'homme mort"[1] ou "doigt du diable"[2]. 
+L'espèce de champignon nommée "xylaria polymorpha" de son nom français "xylaire polymorphe". Elle est surnommée "les mains des morts", "doigt de l'homme mort" ou "doigt du diable". 
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Principalement trouvé en forêt ce champignon à l'allure noire peut ressembler aux doigts d'un cadavre, d'où ses différents surnoms[3].
-Le chapeau de ce champignon mesure généralement entre 3[4] et 10 cm[1] et pousse sous forme de colonne ou de massue[5]. Il est tout d'abord de couleur brunâtre puis devient noir à maturité[6]. 
-La chair de cette espèce est blanche, fibreuse[7], liégeuse et coriace[1]. En périphérie, elle comprend des périthèces contenant des spores[4],[1].
-Il s'agit d'un champignon saprophyte, c'est-à-dire qu'il se nourrit de bois mort[1]. Il se nourrit plus précisément de certaines composantes du bois comme les polysaccharides, entre autres[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Principalement trouvé en forêt ce champignon à l'allure noire peut ressembler aux doigts d'un cadavre, d'où ses différents surnoms.
+Le chapeau de ce champignon mesure généralement entre 3 et 10 cm et pousse sous forme de colonne ou de massue. Il est tout d'abord de couleur brunâtre puis devient noir à maturité. 
+La chair de cette espèce est blanche, fibreuse, liégeuse et coriace. En périphérie, elle comprend des périthèces contenant des spores,.
+Il s'agit d'un champignon saprophyte, c'est-à-dire qu'il se nourrit de bois mort. Il se nourrit plus précisément de certaines composantes du bois comme les polysaccharides, entre autres.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commun sur bois mort au sol notamment de hêtres et autres feuillus comme les chênes et les noisetiers[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commun sur bois mort au sol notamment de hêtres et autres feuillus comme les chênes et les noisetiers.
 </t>
         </is>
       </c>
@@ -578,22 +594,93 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Xylaria polymorpha (Pers.) Grev., 1824[9].
-L'espèce a été initialement classée dans le genre Sphaeria sous le basionyme Sphaeria polymorpha Pers., 1797[9].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : pourridié laineux du poirier[10], xylaire polymorphe[10].
-Synonymes
-Xylaria polymorpha a pour synonymes[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xylaria polymorpha (Pers.) Grev., 1824.
+L'espèce a été initialement classée dans le genre Sphaeria sous le basionyme Sphaeria polymorpha Pers., 1797.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : pourridié laineux du poirier, xylaire polymorphe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xylaire_polymorphe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xylaire_polymorphe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Xylaria polymorpha a pour synonymes :
 Cordyceps polymorpha (Pers.) Fr., 1818
 Cordylia polymorpha (Pers.) Fr., 1818
 Hypoxylon polymorphum (Pers.) Gray, 1821
 Hypoxylon var. polymorphum (Pers.) Mont., 1840
 Sphaeria polymorpha Pers., 1797
 Xylosphaera polymorpha (Pers.) Dumort., 1822
-Xylosphaeria polymorpha (Pers.) Dumort. (1822), 1822
-Liste des sous-espèces et variétés
-Selon MycoBank                                            (13 février 2024)[9] :
+Xylosphaeria polymorpha (Pers.) Dumort. (1822), 1822</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xylaire_polymorphe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xylaire_polymorphe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (13 février 2024) :
 Xylaria polymorpha subsp. pachystroma Sacc., 1890
 Xylaria polymorpha subsp. polymorpha
 Xylaria polymorpha var. acrodactyla Nitschke
@@ -608,31 +695,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Xylaire_polymorphe</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Xylaire_polymorphe</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Greville, RK, Flora Edinensis, 1824, p. 1-478</t>
         </is>
